--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H2">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I2">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J2">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N2">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q2">
-        <v>0.4797008071749999</v>
+        <v>0.525571141964</v>
       </c>
       <c r="R2">
-        <v>4.317307264575</v>
+        <v>4.730140277676</v>
       </c>
       <c r="S2">
-        <v>0.002816726572607402</v>
+        <v>0.003158948218906252</v>
       </c>
       <c r="T2">
-        <v>0.002816726572607402</v>
+        <v>0.003158948218906251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H3">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I3">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J3">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q3">
-        <v>0.88009706272</v>
+        <v>1.014662606613333</v>
       </c>
       <c r="R3">
-        <v>7.92087356448</v>
+        <v>9.13196345952</v>
       </c>
       <c r="S3">
-        <v>0.005167789476186528</v>
+        <v>0.006098635138098041</v>
       </c>
       <c r="T3">
-        <v>0.005167789476186528</v>
+        <v>0.006098635138098039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H4">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I4">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J4">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N4">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q4">
-        <v>1.827857355323</v>
+        <v>2.848057335020334</v>
       </c>
       <c r="R4">
-        <v>16.450716197907</v>
+        <v>25.632516015183</v>
       </c>
       <c r="S4">
-        <v>0.01073288663822475</v>
+        <v>0.01711826416531375</v>
       </c>
       <c r="T4">
-        <v>0.01073288663822475</v>
+        <v>0.01711826416531375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H5">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I5">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J5">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N5">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O5">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P5">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q5">
-        <v>0.5202324643703332</v>
+        <v>0.3141036667682222</v>
       </c>
       <c r="R5">
-        <v>4.682092179333</v>
+        <v>2.826933000914</v>
       </c>
       <c r="S5">
-        <v>0.003054721994224986</v>
+        <v>0.001887921804423127</v>
       </c>
       <c r="T5">
-        <v>0.003054721994224986</v>
+        <v>0.001887921804423127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8011369999999999</v>
+        <v>0.9236296666666667</v>
       </c>
       <c r="H6">
-        <v>2.403411</v>
+        <v>2.770889</v>
       </c>
       <c r="I6">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578545</v>
       </c>
       <c r="J6">
-        <v>0.03767782325830066</v>
+        <v>0.03107564634578544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N6">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O6">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P6">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q6">
-        <v>2.708809765313333</v>
+        <v>0.4678270467102222</v>
       </c>
       <c r="R6">
-        <v>24.37928788782</v>
+        <v>4.210443420392</v>
       </c>
       <c r="S6">
-        <v>0.01590569857705699</v>
+        <v>0.002811877019044276</v>
       </c>
       <c r="T6">
-        <v>0.01590569857705699</v>
+        <v>0.002811877019044276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>11.027086</v>
       </c>
       <c r="H7">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I7">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J7">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N7">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q7">
-        <v>6.602743419649999</v>
+        <v>6.274720692408001</v>
       </c>
       <c r="R7">
-        <v>59.42469077684999</v>
+        <v>56.47248623167201</v>
       </c>
       <c r="S7">
-        <v>0.03877025546770037</v>
+        <v>0.03771424298782023</v>
       </c>
       <c r="T7">
-        <v>0.03877025546770037</v>
+        <v>0.03771424298782022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>11.027086</v>
       </c>
       <c r="H8">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I8">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J8">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q8">
         <v>12.11391559616</v>
@@ -948,10 +948,10 @@
         <v>109.02524036544</v>
       </c>
       <c r="S8">
-        <v>0.07113097882609817</v>
+        <v>0.07281075584452749</v>
       </c>
       <c r="T8">
-        <v>0.07113097882609816</v>
+        <v>0.07281075584452747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>11.027086</v>
       </c>
       <c r="H9">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I9">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J9">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N9">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q9">
-        <v>25.159167848794</v>
+        <v>34.00256000821401</v>
       </c>
       <c r="R9">
-        <v>226.432510639146</v>
+        <v>306.0230400739261</v>
       </c>
       <c r="S9">
-        <v>0.1477306178443328</v>
+        <v>0.2043725726165498</v>
       </c>
       <c r="T9">
-        <v>0.1477306178443328</v>
+        <v>0.2043725726165497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>11.027086</v>
       </c>
       <c r="H10">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I10">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J10">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N10">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O10">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P10">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q10">
-        <v>7.160633105952666</v>
+        <v>3.750039947145334</v>
       </c>
       <c r="R10">
-        <v>64.445697953574</v>
+        <v>33.75035952430801</v>
       </c>
       <c r="S10">
-        <v>0.04204609465847968</v>
+        <v>0.02253963558119687</v>
       </c>
       <c r="T10">
-        <v>0.04204609465847967</v>
+        <v>0.02253963558119687</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>11.027086</v>
       </c>
       <c r="H11">
-        <v>33.081258</v>
+        <v>33.08125800000001</v>
       </c>
       <c r="I11">
-        <v>0.5186086741245026</v>
+        <v>0.3710078152829961</v>
       </c>
       <c r="J11">
-        <v>0.5186086741245025</v>
+        <v>0.371007815282996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N11">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O11">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P11">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q11">
-        <v>37.28485669710667</v>
+        <v>5.585321978469335</v>
       </c>
       <c r="R11">
-        <v>335.56371027396</v>
+        <v>50.26789780622401</v>
       </c>
       <c r="S11">
-        <v>0.2189307273278916</v>
+        <v>0.03357060825290174</v>
       </c>
       <c r="T11">
-        <v>0.2189307273278916</v>
+        <v>0.03357060825290172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H12">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I12">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J12">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N12">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q12">
-        <v>1.694772161225</v>
+        <v>8.097070797608</v>
       </c>
       <c r="R12">
-        <v>15.252949451025</v>
+        <v>72.87363717847199</v>
       </c>
       <c r="S12">
-        <v>0.009951431620785732</v>
+        <v>0.04866748824693583</v>
       </c>
       <c r="T12">
-        <v>0.009951431620785732</v>
+        <v>0.04866748824693582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H13">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I13">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J13">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.29568</v>
       </c>
       <c r="O13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q13">
-        <v>3.10936312544</v>
+        <v>15.63212723349333</v>
       </c>
       <c r="R13">
-        <v>27.98426812896</v>
+        <v>140.68914510144</v>
       </c>
       <c r="S13">
-        <v>0.01825768397366353</v>
+        <v>0.09395698610359038</v>
       </c>
       <c r="T13">
-        <v>0.01825768397366353</v>
+        <v>0.09395698610359036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H14">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I14">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J14">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N14">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q14">
-        <v>6.457778920021</v>
+        <v>43.87783125064733</v>
       </c>
       <c r="R14">
-        <v>58.120010280189</v>
+        <v>394.900481255826</v>
       </c>
       <c r="S14">
-        <v>0.03791904706429075</v>
+        <v>0.263727944347819</v>
       </c>
       <c r="T14">
-        <v>0.03791904706429074</v>
+        <v>0.263727944347819</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H15">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I15">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J15">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N15">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O15">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P15">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q15">
-        <v>1.837969594365667</v>
+        <v>4.839153873834222</v>
       </c>
       <c r="R15">
-        <v>16.541726349291</v>
+        <v>43.552384864508</v>
       </c>
       <c r="S15">
-        <v>0.010792264091825</v>
+        <v>0.02908576078518594</v>
       </c>
       <c r="T15">
-        <v>0.01079226409182501</v>
+        <v>0.02908576078518594</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.830399</v>
+        <v>14.22965266666667</v>
       </c>
       <c r="H16">
-        <v>8.491197</v>
+        <v>42.688958</v>
       </c>
       <c r="I16">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="J16">
-        <v>0.1331149020360699</v>
+        <v>0.4787586084026059</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N16">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O16">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P16">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q16">
-        <v>9.570163968126668</v>
+        <v>7.207451885758223</v>
       </c>
       <c r="R16">
-        <v>86.13147571314001</v>
+        <v>64.867066971824</v>
       </c>
       <c r="S16">
-        <v>0.05619447528550491</v>
+        <v>0.04332042891907482</v>
       </c>
       <c r="T16">
-        <v>0.05619447528550489</v>
+        <v>0.04332042891907481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H17">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I17">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J17">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N17">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q17">
-        <v>0.8712034539916667</v>
+        <v>0.529778155644</v>
       </c>
       <c r="R17">
-        <v>7.840831085925</v>
+        <v>4.768003400796</v>
       </c>
       <c r="S17">
-        <v>0.005115567625281177</v>
+        <v>0.003184234497604294</v>
       </c>
       <c r="T17">
-        <v>0.005115567625281176</v>
+        <v>0.003184234497604293</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H18">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I18">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J18">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.29568</v>
       </c>
       <c r="O18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q18">
-        <v>1.598378800746667</v>
+        <v>1.02278462688</v>
       </c>
       <c r="R18">
-        <v>14.38540920672</v>
+        <v>9.20506164192</v>
       </c>
       <c r="S18">
-        <v>0.009385425193818867</v>
+        <v>0.006147452585265003</v>
       </c>
       <c r="T18">
-        <v>0.009385425193818865</v>
+        <v>0.006147452585265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H19">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I19">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J19">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N19">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q19">
-        <v>3.319643447630334</v>
+        <v>2.870855040627</v>
       </c>
       <c r="R19">
-        <v>29.876791028673</v>
+        <v>25.837695365643</v>
       </c>
       <c r="S19">
-        <v>0.01949241646181188</v>
+        <v>0.01725528989936036</v>
       </c>
       <c r="T19">
-        <v>0.01949241646181187</v>
+        <v>0.01725528989936035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H20">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I20">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J20">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N20">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O20">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P20">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q20">
-        <v>0.944814586631889</v>
+        <v>0.316617957066</v>
       </c>
       <c r="R20">
-        <v>8.503331279687</v>
+        <v>2.849561613594</v>
       </c>
       <c r="S20">
-        <v>0.005547800446752752</v>
+        <v>0.001903033959988401</v>
       </c>
       <c r="T20">
-        <v>0.005547800446752752</v>
+        <v>0.0019030339599884</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.454976333333333</v>
+        <v>0.931023</v>
       </c>
       <c r="H21">
-        <v>4.364929</v>
+        <v>2.793069</v>
       </c>
       <c r="I21">
-        <v>0.06842817287473141</v>
+        <v>0.03132439605605877</v>
       </c>
       <c r="J21">
-        <v>0.06842817287473139</v>
+        <v>0.03132439605605876</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N21">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O21">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P21">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q21">
-        <v>4.91957567810889</v>
+        <v>0.471571839048</v>
       </c>
       <c r="R21">
-        <v>44.27618110298</v>
+        <v>4.244146551432</v>
       </c>
       <c r="S21">
-        <v>0.02888696314706674</v>
+        <v>0.002834385113840712</v>
       </c>
       <c r="T21">
-        <v>0.02888696314706673</v>
+        <v>0.002834385113840712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H22">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I22">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J22">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N22">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O22">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P22">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q22">
-        <v>3.083228796108333</v>
+        <v>1.485496720084</v>
       </c>
       <c r="R22">
-        <v>27.749059164975</v>
+        <v>13.369470480756</v>
       </c>
       <c r="S22">
-        <v>0.01810422736324151</v>
+        <v>0.00892858614832749</v>
       </c>
       <c r="T22">
-        <v>0.01810422736324151</v>
+        <v>0.008928586148327486</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H23">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I23">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J23">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.29568</v>
       </c>
       <c r="O23">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P23">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q23">
-        <v>5.656735545493334</v>
+        <v>2.867885722346667</v>
       </c>
       <c r="R23">
-        <v>50.91061990944</v>
+        <v>25.81097150112</v>
       </c>
       <c r="S23">
-        <v>0.03321544822706793</v>
+        <v>0.01723744279562104</v>
       </c>
       <c r="T23">
-        <v>0.03321544822706793</v>
+        <v>0.01723744279562103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H24">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I24">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J24">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N24">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O24">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P24">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q24">
-        <v>11.74836971048567</v>
+        <v>8.049870877563666</v>
       </c>
       <c r="R24">
-        <v>105.735327394371</v>
+        <v>72.44883789807301</v>
       </c>
       <c r="S24">
-        <v>0.06898455173178107</v>
+        <v>0.04838379286975172</v>
       </c>
       <c r="T24">
-        <v>0.06898455173178106</v>
+        <v>0.04838379286975171</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H25">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I25">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J25">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N25">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O25">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P25">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q25">
-        <v>3.343741955038778</v>
+        <v>0.8877960175037778</v>
       </c>
       <c r="R25">
-        <v>30.093677595349</v>
+        <v>7.990164157534</v>
       </c>
       <c r="S25">
-        <v>0.01963391905084708</v>
+        <v>0.005336102811439602</v>
       </c>
       <c r="T25">
-        <v>0.01963391905084708</v>
+        <v>0.0053361028114396</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.149227666666667</v>
+        <v>2.610586333333333</v>
       </c>
       <c r="H26">
-        <v>15.447683</v>
+        <v>7.831759</v>
       </c>
       <c r="I26">
-        <v>0.2421704277063955</v>
+        <v>0.0878335339125538</v>
       </c>
       <c r="J26">
-        <v>0.2421704277063955</v>
+        <v>0.08783353391255379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N26">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O26">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P26">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q26">
-        <v>17.41060291471778</v>
+        <v>1.322286343305778</v>
       </c>
       <c r="R26">
-        <v>156.69542623246</v>
+        <v>11.900577089752</v>
       </c>
       <c r="S26">
-        <v>0.102232281333458</v>
+        <v>0.00794760928741396</v>
       </c>
       <c r="T26">
-        <v>0.1022322813334579</v>
+        <v>0.007947609287413959</v>
       </c>
     </row>
   </sheetData>
